--- a/data/trans_orig/Q03B_FES-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_FES-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4FD1F0-B5DF-45BE-A14D-6D550EBFAA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA9E9F3-936F-4291-86EE-E57A930CA4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE1B11A5-E5F6-468D-8EF1-529A54A4DAB0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DC6689EC-24D7-46CA-8741-4B90B7396BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -3062,7 +3062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3AF26A-B84E-47FF-B5FA-B3978767FEA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5188BA87-4E68-40E5-A336-25F16485C75D}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4065,7 +4065,7 @@
         <v>332</v>
       </c>
       <c r="I21" s="7">
-        <v>334426</v>
+        <v>334427</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>125</v>
@@ -4167,7 +4167,7 @@
         <v>78</v>
       </c>
       <c r="I23" s="7">
-        <v>83697</v>
+        <v>83698</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>145</v>
@@ -4218,7 +4218,7 @@
         <v>1254</v>
       </c>
       <c r="I24" s="7">
-        <v>1276230</v>
+        <v>1276231</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>151</v>
@@ -7299,7 +7299,7 @@
         <v>1235</v>
       </c>
       <c r="N84" s="7">
-        <v>1274952</v>
+        <v>1274951</v>
       </c>
       <c r="O84" s="7" t="s">
         <v>384</v>
@@ -7452,7 +7452,7 @@
         <v>6335</v>
       </c>
       <c r="N87" s="7">
-        <v>6479644</v>
+        <v>6479643</v>
       </c>
       <c r="O87" s="7" t="s">
         <v>151</v>
@@ -7485,7 +7485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FB8E0F-B755-4536-AD8E-56DFBBE6D849}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E06F294-765C-4240-B3DF-93DB0ECA8AC2}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11590,7 +11590,7 @@
         <v>162</v>
       </c>
       <c r="D82" s="7">
-        <v>180096</v>
+        <v>180097</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>433</v>
@@ -11794,7 +11794,7 @@
         <v>1023</v>
       </c>
       <c r="D86" s="7">
-        <v>1088920</v>
+        <v>1088921</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>652</v>
@@ -11845,7 +11845,7 @@
         <v>3160</v>
       </c>
       <c r="D87" s="7">
-        <v>3376308</v>
+        <v>3376309</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>151</v>
@@ -11908,7 +11908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3739D6-14BD-433D-AC20-FAB517C571C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1397BBE1-E30B-486A-91D6-47B1BFD502FD}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14050,7 +14050,7 @@
         <v>807</v>
       </c>
       <c r="N43" s="7">
-        <v>850096</v>
+        <v>850095</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>777</v>
@@ -14152,7 +14152,7 @@
         <v>3708</v>
       </c>
       <c r="N45" s="7">
-        <v>3899814</v>
+        <v>3899813</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>151</v>
@@ -16130,7 +16130,7 @@
         <v>648</v>
       </c>
       <c r="I84" s="7">
-        <v>684059</v>
+        <v>684060</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>854</v>
@@ -16283,7 +16283,7 @@
         <v>3232</v>
       </c>
       <c r="I87" s="7">
-        <v>3427476</v>
+        <v>3427477</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>151</v>
